--- a/src/main/resources/test2.xlsx
+++ b/src/main/resources/test2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\TestFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\projects\GitForExcel\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29DF1AE-ED58-41F4-9CAC-EC89A9944C54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D55DB-3929-457D-8C37-5D92D40B31FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="SheetOK" sheetId="2" r:id="rId1"/>
+    <sheet name="SecondSheet" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -558,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E77958B-15FB-44BF-889B-61C4C9570314}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -730,11 +731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A275A6-B820-4DC1-81B0-C0A38ADCBABC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BFC5B7-3D46-4312-B9DA-D713A20E1FF7}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,4 +902,178 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A275A6-B820-4DC1-81B0-C0A38ADCBABC}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>